--- a/ClearHorizonsData/update_workbook.xlsx
+++ b/ClearHorizonsData/update_workbook.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <sheets>
     <sheet name="Time_Sheets" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="D_A_user" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="D_A_users" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -36636,7 +36636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36659,11 +36659,66 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="6"/>
-    <row r="3" ht="12.75" customHeight="1" s="6"/>
-    <row r="4" ht="12.75" customHeight="1" s="6"/>
-    <row r="5" ht="12.75" customHeight="1" s="6"/>
-    <row r="6" ht="12.75" customHeight="1" s="6"/>
+    <row r="2" ht="12.75" customHeight="1" s="6">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Chamique</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Houle</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="6">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Griffin</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Kartchner</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="6">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Keaton</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Carter</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="6">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Roskelley</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Rick</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lewis</t>
+        </is>
+      </c>
+    </row>
     <row r="7" ht="12.75" customHeight="1" s="6"/>
     <row r="8" ht="12.75" customHeight="1" s="6"/>
     <row r="9" ht="12.75" customHeight="1" s="6"/>

--- a/ClearHorizonsData/update_workbook.xlsx
+++ b/ClearHorizonsData/update_workbook.xlsx
@@ -36636,7 +36636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36707,18 +36707,7 @@
         </is>
       </c>
     </row>
-    <row r="6" ht="12.75" customHeight="1" s="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Rick</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Lewis</t>
-        </is>
-      </c>
-    </row>
+    <row r="6" ht="12.75" customHeight="1" s="6"/>
     <row r="7" ht="12.75" customHeight="1" s="6"/>
     <row r="8" ht="12.75" customHeight="1" s="6"/>
     <row r="9" ht="12.75" customHeight="1" s="6"/>
